--- a/biology/Histoire de la zoologie et de la botanique/François_Haken_Philippar/François_Haken_Philippar.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Haken_Philippar/François_Haken_Philippar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Haken_Philippar</t>
+          <t>François_Haken_Philippar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Haken Philippar, né le 21 janvier 1802, à Pennsign, près de Vienne (Autriche), et mort le 21 juin 1849 à Versailles, est un jardinier et botaniste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Haken_Philippar</t>
+          <t>François_Haken_Philippar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonctions
-Directeur du jardin des plantes de Versailles (jardin disparu en 1851)[1] ;
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Directeur du jardin des plantes de Versailles (jardin disparu en 1851) ;
 Chargé de la direction du jardin de l'école normale de Versailles ;
 Chargé des cultures d'études et des cultures horticoles de l'institut agronomique de Grignon ;
 Professeur d'agriculture et professeur de botanique à l'école normale de Versailles ;
@@ -531,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Haken_Philippar</t>
+          <t>François_Haken_Philippar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,17 +566,19 @@
           <t>Ses œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Voyage agronomique en Angleterre, fait en 1829 : ou essai sur les cultures de ce pays comparées à celles de la France, Paris : Rousselon, 1830, 188 p. [1]
-Catalogue des végétaux ligneux et des végétaux herbacés cultivés dans le jardin d'étude de l'Institution royale agronomique de Grignon, Paris : Madame Huzard, 1837 [2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voyage agronomique en Angleterre, fait en 1829 : ou essai sur les cultures de ce pays comparées à celles de la France, Paris : Rousselon, 1830, 188 p. 
+Catalogue des végétaux ligneux et des végétaux herbacés cultivés dans le jardin d'étude de l'Institution royale agronomique de Grignon, Paris : Madame Huzard, 1837 
 Mémoire sur la Renouée des teinturiers (Polygonum tinctorium), considérée comme plante indigofère, Paris : Bouchard-Huzard, 1839, 71 p.
-Programme raisonné du cours de culture professé à l'Ecole normale de Versailles: suivi de l'exposé des élémens d'études agronomiques, et de la description du jardin d'instruction de l'école, Paris : Dufaure, 1840, 252 p. [3]
+Programme raisonné du cours de culture professé à l'Ecole normale de Versailles: suivi de l'exposé des élémens d'études agronomiques, et de la description du jardin d'instruction de l'école, Paris : Dufaure, 1840, 252 p. 
 Rapport sur le onzième concours ayant pour objet la substitution d'un assolement sans jachère périodique de quatre années au moins, aux assolements avec jachère, Veuve Bouchard-Huzard, 1842, 16 p.
-Catalogue méthodique des végétaux cultivés dans le Jardin des plantes de la ville de Versailles, Versailles : Montalant-Bougleux, 1843 [4]
-Études forestières considérées sous le rapport de l'amélioration des bois et des forêts en France, Paris : Veuve Bouchard-Huzard, 1843, 416 p. [5]
+Catalogue méthodique des végétaux cultivés dans le Jardin des plantes de la ville de Versailles, Versailles : Montalant-Bougleux, 1843 
+Études forestières considérées sous le rapport de l'amélioration des bois et des forêts en France, Paris : Veuve Bouchard-Huzard, 1843, 416 p. 
 Notice sur quelques outils, instruments et machines employés en agriculture, 1844, 28 p.
-Notice sur la maladie qui a affecté les pommes de terre, dans les Annales de l'agriculture française, décembre 1845 [6]
+Notice sur la maladie qui a affecté les pommes de terre, dans les Annales de l'agriculture française, décembre 1845 
 Notice descriptive, culturale et économique sur deux plantes tuberculeuses: l’Ulluco ("Ullucus tuberosus"), Loz., et le Boussingaultie ("Boussingaultia baselloides"), Humb. et Kunth, Paris : Veuve Bouchard-Huzard, 1849, 26 p.</t>
         </is>
       </c>
